--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_1_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>1.725130460355095</v>
       </c>
       <c r="AG17">
-        <v>-0.4891791466461126</v>
+        <v>-0.5413737111579442</v>
       </c>
       <c r="AH17">
         <v>-0.2228847697281378</v>
@@ -2451,19 +2451,19 @@
         <v>-1.194610791900008</v>
       </c>
       <c r="AG18">
-        <v>1.831864451486243</v>
+        <v>1.135957076337268</v>
       </c>
       <c r="AH18">
-        <v>2.646620531497335</v>
+        <v>5.441727066293178</v>
       </c>
       <c r="AI18">
-        <v>2.288807135633641</v>
+        <v>2.117990494347866</v>
       </c>
       <c r="AJ18">
-        <v>-0.5115004854862049</v>
+        <v>-2.22169520243084</v>
       </c>
       <c r="AK18">
-        <v>-0.7941560676977599</v>
+        <v>-0.847546909834207</v>
       </c>
       <c r="AL18">
         <v>-1.165854108406617</v>
@@ -2522,31 +2522,31 @@
         <v>-1.194610791899997</v>
       </c>
       <c r="AG19">
-        <v>3.231167353586639</v>
+        <v>2.366036858041531</v>
       </c>
       <c r="AH19">
-        <v>3.227167085528171</v>
+        <v>7.730694266634286</v>
       </c>
       <c r="AI19">
-        <v>2.832246610071509</v>
+        <v>2.377383675146461</v>
       </c>
       <c r="AJ19">
-        <v>2.23509962177757</v>
+        <v>-6.324519326136446</v>
       </c>
       <c r="AK19">
-        <v>4.94197512951382</v>
+        <v>4.214126463489443</v>
       </c>
       <c r="AL19">
-        <v>4.306257314632855</v>
+        <v>2.8273245050219</v>
       </c>
       <c r="AM19">
-        <v>4.061815910726119</v>
+        <v>3.946810400327672</v>
       </c>
       <c r="AN19">
-        <v>0.9727820482463123</v>
+        <v>-1.290816600413758</v>
       </c>
       <c r="AO19">
-        <v>2.34069710769782</v>
+        <v>2.440625733302504</v>
       </c>
       <c r="AP19">
         <v>2.501311189006916</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>2.832246610071487</v>
-      </c>
       <c r="AJ20">
-        <v>2.831686077280304</v>
+        <v>-6.324519326136457</v>
       </c>
       <c r="AK20">
-        <v>6.144160256529796</v>
+        <v>5.242891668610383</v>
       </c>
       <c r="AL20">
-        <v>6.139329390518555</v>
+        <v>3.755917372390805</v>
       </c>
       <c r="AM20">
-        <v>5.709386381624437</v>
+        <v>5.401597835967076</v>
       </c>
       <c r="AN20">
-        <v>2.866869504079239</v>
+        <v>-8.277043919141548</v>
       </c>
       <c r="AO20">
-        <v>1.687287030004092</v>
+        <v>2.977284542118408</v>
       </c>
       <c r="AP20">
-        <v>3.687525625406263</v>
+        <v>3.766995476534918</v>
       </c>
       <c r="AQ20">
-        <v>2.830392552592231</v>
+        <v>2.937285310545068</v>
       </c>
       <c r="AR20">
-        <v>2.122313752051319</v>
+        <v>2.066568225344967</v>
       </c>
       <c r="AS20">
-        <v>0.9259311313598806</v>
+        <v>0.9420042531300021</v>
       </c>
       <c r="AT20">
         <v>0.6753076481029074</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>5.709386381624437</v>
-      </c>
       <c r="AN21">
-        <v>3.654527474323466</v>
+        <v>-8.277043919141514</v>
       </c>
       <c r="AO21">
-        <v>1.625224117510826</v>
+        <v>3.211590201182224</v>
       </c>
       <c r="AP21">
-        <v>4.056998246262244</v>
+        <v>4.183991082435123</v>
       </c>
       <c r="AQ21">
-        <v>2.56445306171762</v>
+        <v>2.847433398110777</v>
       </c>
       <c r="AR21">
-        <v>0.8382457967197388</v>
+        <v>0.5638104621660478</v>
       </c>
       <c r="AS21">
-        <v>0.9881529557394186</v>
+        <v>1.197522477793767</v>
       </c>
       <c r="AT21">
-        <v>0.5720316833079497</v>
+        <v>0.5616045648562995</v>
       </c>
       <c r="AU21">
-        <v>1.488849104696177</v>
+        <v>1.648295078144391</v>
       </c>
       <c r="AV21">
-        <v>-0.1133034947815914</v>
+        <v>-1.187784794999047</v>
       </c>
       <c r="AW21">
-        <v>1.935025917091848</v>
+        <v>2.025083876303735</v>
       </c>
       <c r="AX21">
         <v>2.039329803030121</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>2.56445306171762</v>
-      </c>
       <c r="AR22">
-        <v>0.8565109507469026</v>
+        <v>0.5638104621660478</v>
       </c>
       <c r="AS22">
-        <v>1.459627762192195</v>
+        <v>1.718205889504132</v>
       </c>
       <c r="AT22">
-        <v>1.242222362664624</v>
+        <v>1.225454022269989</v>
       </c>
       <c r="AU22">
-        <v>2.559682772914296</v>
+        <v>2.987477902237012</v>
       </c>
       <c r="AV22">
-        <v>0.8323378752418176</v>
+        <v>-4.510558235413276</v>
       </c>
       <c r="AW22">
-        <v>1.300166298184058</v>
+        <v>2.460035583527875</v>
       </c>
       <c r="AX22">
-        <v>2.838786065810939</v>
+        <v>2.644471404309057</v>
       </c>
       <c r="AY22">
-        <v>1.774603592091717</v>
+        <v>0.631520836937316</v>
       </c>
       <c r="AZ22">
-        <v>3.161594928268019</v>
+        <v>4.306165070258094</v>
       </c>
       <c r="BA22">
-        <v>2.43119486791763</v>
+        <v>2.54162050343838</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>2.559682772914296</v>
-      </c>
       <c r="AV23">
-        <v>1.199362204036181</v>
+        <v>-4.510558235413265</v>
       </c>
       <c r="AW23">
-        <v>0.822364855867419</v>
+        <v>2.243950929018612</v>
       </c>
       <c r="AX23">
-        <v>2.779743582477323</v>
+        <v>2.470195819367027</v>
       </c>
       <c r="AY23">
-        <v>2.333011795730777</v>
+        <v>-0.6983252104540982</v>
       </c>
       <c r="AZ23">
-        <v>2.57979941834241</v>
+        <v>8.305446157974039</v>
       </c>
       <c r="BA23">
-        <v>3.197192111131564</v>
+        <v>4.635607024939148</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>2.333011795730777</v>
-      </c>
       <c r="AZ24">
-        <v>2.21439063873301</v>
+        <v>8.305446157974018</v>
       </c>
       <c r="BA24">
-        <v>3.02472993251901</v>
+        <v>4.790390165141822</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_1_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>11.85432543412961</v>
+      </c>
+      <c r="C3">
+        <v>-12.90434384910118</v>
+      </c>
+      <c r="D3">
+        <v>10.14224506046018</v>
+      </c>
+      <c r="E3">
+        <v>9.162319139560072</v>
+      </c>
+      <c r="F3">
+        <v>6.277541464866965</v>
+      </c>
+      <c r="G3">
+        <v>4.685841089432219</v>
+      </c>
+      <c r="H3">
+        <v>5.50407996026312</v>
+      </c>
+      <c r="I3">
+        <v>5.261925437969173</v>
+      </c>
+      <c r="J3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="K3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="L3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="M3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="N3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="O3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="P3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="Q3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="R3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="S3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="T3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="U3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="V3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="W3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="X3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="Y3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="Z3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AA3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AB3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AC3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AD3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AE3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AF3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AG3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AH3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AI3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AJ3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AK3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AL3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AM3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AN3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AO3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AP3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AQ3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AR3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AS3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AT3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AU3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AV3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AW3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AX3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AY3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="AZ3">
+        <v>1.457481710491582</v>
+      </c>
+      <c r="BA3">
+        <v>1.457481710491582</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>5.896808312953783</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>6.499072917387227</v>
+        <v>-12.90434384910118</v>
       </c>
       <c r="D4">
-        <v>7.465152966818556</v>
+        <v>10.78090200251371</v>
       </c>
       <c r="E4">
-        <v>7.465152966818556</v>
+        <v>11.00161740362515</v>
       </c>
       <c r="F4">
-        <v>6.977409046522776</v>
+        <v>9.926356894614985</v>
       </c>
       <c r="G4">
-        <v>6.977409046522776</v>
+        <v>4.440675708811348</v>
       </c>
       <c r="H4">
-        <v>6.977409046522776</v>
+        <v>6.535114773304795</v>
       </c>
       <c r="I4">
-        <v>6.977409046522776</v>
+        <v>6.546022603510737</v>
       </c>
       <c r="J4">
-        <v>6.977409046522776</v>
+        <v>2.925298061139281</v>
       </c>
       <c r="K4">
-        <v>6.977409046522776</v>
+        <v>2.925298061139281</v>
       </c>
       <c r="L4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="M4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="N4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="O4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="P4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="Q4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="R4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="S4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="T4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="U4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="V4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="W4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="X4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="Y4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="Z4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AA4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AB4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AC4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AD4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AE4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AF4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AG4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AH4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AI4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AJ4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AK4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AL4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AM4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AN4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AO4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AP4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AQ4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AR4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AS4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AT4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AU4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AV4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AW4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AX4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AY4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="AZ4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
       <c r="BA4">
-        <v>6.977409046522776</v>
+        <v>1.816525349942233</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>10.70171490310616</v>
-      </c>
-      <c r="C5">
-        <v>2.316462327490609</v>
-      </c>
-      <c r="D5">
-        <v>7.441962824572235</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>7.28678647089771</v>
+        <v>11.00161740362518</v>
       </c>
       <c r="F5">
-        <v>6.333240261802175</v>
+        <v>10.84964443901089</v>
       </c>
       <c r="G5">
-        <v>7.319484411839716</v>
+        <v>0.02592873473603596</v>
       </c>
       <c r="H5">
-        <v>7.862909309344301</v>
+        <v>6.670100100023779</v>
       </c>
       <c r="I5">
-        <v>7.862909309344301</v>
+        <v>6.166830030198267</v>
       </c>
       <c r="J5">
-        <v>7.862909309344301</v>
+        <v>5.12051970717502</v>
       </c>
       <c r="K5">
-        <v>7.862909309344301</v>
+        <v>5.068263380731564</v>
       </c>
       <c r="L5">
-        <v>7.862909309344301</v>
+        <v>3.441186410406072</v>
       </c>
       <c r="M5">
-        <v>7.862909309344301</v>
+        <v>3.441186410406072</v>
       </c>
       <c r="N5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="O5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="P5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="Q5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="R5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="S5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="T5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="U5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="V5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="W5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="X5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="Y5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="Z5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AA5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AB5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AC5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AD5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AE5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AF5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AG5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AH5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AI5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AJ5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AK5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AL5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AM5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AN5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AO5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AP5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AQ5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AR5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AS5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AT5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AU5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AV5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AW5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AX5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AY5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="AZ5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
       <c r="BA5">
-        <v>7.862909309344301</v>
+        <v>5.154576318286241</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>11.85432543412963</v>
-      </c>
-      <c r="C6">
-        <v>-12.90434384910116</v>
-      </c>
-      <c r="D6">
-        <v>10.14224506046018</v>
-      </c>
-      <c r="E6">
-        <v>9.162319139560072</v>
-      </c>
-      <c r="F6">
-        <v>6.277541464866987</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>4.685841089432219</v>
+        <v>0.02592873473601376</v>
       </c>
       <c r="H6">
-        <v>5.504079960263075</v>
+        <v>6.927785155725341</v>
       </c>
       <c r="I6">
-        <v>5.261925437969128</v>
+        <v>5.009734572843771</v>
       </c>
       <c r="J6">
-        <v>1.457481710491537</v>
+        <v>6.878526556821973</v>
       </c>
       <c r="K6">
-        <v>1.457481710491537</v>
+        <v>2.204591531842581</v>
       </c>
       <c r="L6">
-        <v>1.457481710491537</v>
+        <v>3.65682115264816</v>
       </c>
       <c r="M6">
-        <v>1.457481710491537</v>
+        <v>3.608456360804535</v>
       </c>
       <c r="N6">
-        <v>1.457481710491537</v>
+        <v>4.235269442720724</v>
       </c>
       <c r="O6">
-        <v>1.457481710491537</v>
+        <v>4.235269442720724</v>
       </c>
       <c r="P6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="Q6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="R6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="S6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="T6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="U6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="V6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="W6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="X6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="Y6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="Z6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AA6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AB6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AC6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AD6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AE6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AF6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AG6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AH6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AI6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AJ6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AK6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AL6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AM6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AN6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AO6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AP6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AQ6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AR6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AS6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AT6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AU6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AV6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AW6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AX6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AY6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="AZ6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
       <c r="BA6">
-        <v>1.457481710491537</v>
+        <v>3.237295655668815</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>-12.90434384910117</v>
-      </c>
-      <c r="D7">
-        <v>10.78090200251371</v>
-      </c>
-      <c r="E7">
-        <v>11.00161740362515</v>
-      </c>
-      <c r="F7">
-        <v>9.926356894615008</v>
-      </c>
-      <c r="G7">
-        <v>4.440675708811326</v>
-      </c>
-      <c r="H7">
-        <v>6.535114773304773</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>6.546022603510715</v>
+        <v>5.009734572843771</v>
       </c>
       <c r="J7">
-        <v>2.925298061139281</v>
+        <v>7.795350958660285</v>
       </c>
       <c r="K7">
-        <v>2.925298061139281</v>
+        <v>-4.72694934804071</v>
       </c>
       <c r="L7">
-        <v>1.816525349942233</v>
+        <v>4.783388268072009</v>
       </c>
       <c r="M7">
-        <v>1.816525349942233</v>
+        <v>1.09689030557385</v>
       </c>
       <c r="N7">
-        <v>1.816525349942233</v>
+        <v>2.943878639034381</v>
       </c>
       <c r="O7">
-        <v>1.816525349942233</v>
+        <v>2.964987684846876</v>
       </c>
       <c r="P7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="Q7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="R7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="S7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="T7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="U7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="V7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="W7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="X7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="Y7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="Z7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AA7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AB7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AC7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AD7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AE7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AF7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AG7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AH7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AI7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AJ7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AK7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AL7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AM7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AN7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AO7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AP7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AQ7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AR7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AS7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AT7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AU7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AV7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AW7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AX7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AY7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="AZ7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
       <c r="BA7">
-        <v>1.816525349942233</v>
+        <v>0.9877679306576237</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>11.00161740362515</v>
-      </c>
-      <c r="F8">
-        <v>10.84964443901089</v>
-      </c>
-      <c r="G8">
-        <v>0.02592873473603596</v>
-      </c>
-      <c r="H8">
-        <v>6.670100100023779</v>
-      </c>
-      <c r="I8">
-        <v>6.166830030198267</v>
-      </c>
-      <c r="J8">
-        <v>5.12051970717502</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>5.068263380731586</v>
+        <v>-4.72694934804071</v>
       </c>
       <c r="L8">
-        <v>3.441186410406072</v>
+        <v>5.510213402480368</v>
       </c>
       <c r="M8">
-        <v>3.441186410406072</v>
+        <v>-4.442195584720943</v>
       </c>
       <c r="N8">
-        <v>5.154576318286241</v>
+        <v>5.440628060653574</v>
       </c>
       <c r="O8">
-        <v>5.154576318286241</v>
+        <v>1.600060471414855</v>
       </c>
       <c r="P8">
-        <v>5.154576318286241</v>
+        <v>1.172679597477866</v>
       </c>
       <c r="Q8">
-        <v>5.154576318286241</v>
+        <v>1.179635526469514</v>
       </c>
       <c r="R8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="S8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="T8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="U8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="V8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="W8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="X8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="Y8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="Z8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AA8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AB8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AC8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AD8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AE8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AF8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AG8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AH8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AI8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AJ8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AK8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AL8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AM8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AN8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AO8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AP8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AQ8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AR8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AS8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AT8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AU8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AV8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AW8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AX8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AY8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="AZ8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
       <c r="BA8">
-        <v>5.154576318286241</v>
+        <v>2.422799116969476</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>0.02592873473601376</v>
-      </c>
-      <c r="H9">
-        <v>6.927785155725363</v>
-      </c>
-      <c r="I9">
-        <v>5.009734572843771</v>
-      </c>
-      <c r="J9">
-        <v>6.878526556821973</v>
-      </c>
-      <c r="K9">
-        <v>2.204591531842581</v>
-      </c>
-      <c r="L9">
-        <v>3.65682115264816</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>3.608456360804535</v>
+        <v>-4.442195584720943</v>
       </c>
       <c r="N9">
-        <v>4.235269442720746</v>
+        <v>6.083503695282166</v>
       </c>
       <c r="O9">
-        <v>4.235269442720746</v>
+        <v>-2.94981949413492</v>
       </c>
       <c r="P9">
-        <v>3.237295655668815</v>
+        <v>0.7846309372076199</v>
       </c>
       <c r="Q9">
-        <v>3.237295655668815</v>
+        <v>1.651055586686678</v>
       </c>
       <c r="R9">
-        <v>3.237295655668815</v>
+        <v>2.961845079861303</v>
       </c>
       <c r="S9">
-        <v>3.237295655668815</v>
+        <v>2.855441083184784</v>
       </c>
       <c r="T9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="U9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="V9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="W9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="X9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="Y9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="Z9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AA9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AB9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AC9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AD9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AE9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AF9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AG9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AH9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AI9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AJ9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AK9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AL9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AM9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AN9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AO9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AP9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AQ9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AR9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AS9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AT9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AU9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AV9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AW9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AX9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AY9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="AZ9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
       <c r="BA9">
-        <v>3.237295655668815</v>
+        <v>2.851134222122798</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>5.009734572843749</v>
-      </c>
-      <c r="J10">
-        <v>7.795350958660285</v>
-      </c>
-      <c r="K10">
-        <v>-4.726949348040732</v>
-      </c>
-      <c r="L10">
-        <v>4.783388268072009</v>
-      </c>
-      <c r="M10">
-        <v>1.09689030557385</v>
-      </c>
-      <c r="N10">
-        <v>2.943878639034381</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>2.964987684846854</v>
+        <v>-2.949819494134909</v>
       </c>
       <c r="P10">
-        <v>0.9877679306576237</v>
+        <v>0.6967363121191061</v>
       </c>
       <c r="Q10">
-        <v>0.9877679306576237</v>
+        <v>2.83373437266663</v>
       </c>
       <c r="R10">
-        <v>0.9877679306576237</v>
+        <v>2.521390070591267</v>
       </c>
       <c r="S10">
-        <v>0.9877679306576237</v>
+        <v>1.99440460461342</v>
       </c>
       <c r="T10">
-        <v>0.9877679306576237</v>
+        <v>2.508469427909921</v>
       </c>
       <c r="U10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="V10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="W10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="X10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="Y10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="Z10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AA10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AB10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AC10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AD10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AE10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AF10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AG10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AH10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AI10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AJ10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AK10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AL10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AM10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AN10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AO10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AP10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AQ10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AR10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AS10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AT10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AU10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AV10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AW10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AX10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AY10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="AZ10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
       <c r="BA10">
-        <v>0.9877679306576237</v>
+        <v>2.51345851603284</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>-4.726949348040743</v>
-      </c>
-      <c r="L11">
-        <v>5.510213402480391</v>
-      </c>
-      <c r="M11">
-        <v>-4.442195584720931</v>
-      </c>
-      <c r="N11">
-        <v>5.440628060653574</v>
-      </c>
-      <c r="O11">
-        <v>1.600060471414833</v>
-      </c>
-      <c r="P11">
-        <v>1.172679597477866</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>1.179635526469514</v>
+        <v>2.833734372666652</v>
       </c>
       <c r="R11">
-        <v>2.422799116969476</v>
+        <v>2.444382079779528</v>
       </c>
       <c r="S11">
-        <v>2.422799116969476</v>
+        <v>0.9898525518332146</v>
       </c>
       <c r="T11">
-        <v>2.422799116969476</v>
+        <v>2.540874511056646</v>
       </c>
       <c r="U11">
-        <v>2.422799116969476</v>
+        <v>2.613530175870649</v>
       </c>
       <c r="V11">
-        <v>2.422799116969476</v>
+        <v>3.523703831572056</v>
       </c>
       <c r="W11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="X11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="Y11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="Z11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AA11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AB11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AC11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AD11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AE11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AF11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AG11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AH11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AI11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AJ11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AK11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AL11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AM11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AN11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AO11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AP11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AQ11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AR11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AS11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AT11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AU11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AV11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AW11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AX11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AY11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="AZ11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
       <c r="BA11">
-        <v>2.422799116969476</v>
+        <v>3.529772839278777</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>-4.442195584720954</v>
-      </c>
-      <c r="N12">
-        <v>6.083503695282211</v>
-      </c>
-      <c r="O12">
-        <v>-2.949819494134909</v>
-      </c>
-      <c r="P12">
-        <v>0.7846309372076199</v>
-      </c>
-      <c r="Q12">
-        <v>1.651055586686678</v>
-      </c>
-      <c r="R12">
-        <v>2.961845079861303</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>2.855441083184784</v>
+        <v>0.9898525518332146</v>
       </c>
       <c r="T12">
-        <v>2.851134222122775</v>
+        <v>2.395655121238915</v>
       </c>
       <c r="U12">
-        <v>2.851134222122775</v>
+        <v>3.313641510414356</v>
       </c>
       <c r="V12">
-        <v>2.851134222122775</v>
+        <v>3.025650759930021</v>
       </c>
       <c r="W12">
-        <v>2.851134222122775</v>
+        <v>1.274170701304334</v>
       </c>
       <c r="X12">
-        <v>2.851134222122775</v>
+        <v>3.696331036365752</v>
       </c>
       <c r="Y12">
-        <v>2.851134222122775</v>
+        <v>1.207340632843734</v>
       </c>
       <c r="Z12">
-        <v>2.851134222122775</v>
+        <v>1.178605266817589</v>
       </c>
       <c r="AA12">
-        <v>2.851134222122775</v>
+        <v>1.172618626782262</v>
       </c>
       <c r="AB12">
-        <v>2.851134222122775</v>
+        <v>1.178605266817589</v>
       </c>
       <c r="AC12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AD12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AE12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AF12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AG12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AH12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AI12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AJ12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AK12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AL12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AM12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AN12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AO12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AP12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AQ12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AR12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AS12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AT12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AU12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AV12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AW12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AX12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AY12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="AZ12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
       <c r="BA12">
-        <v>2.851134222122775</v>
+        <v>2.406741336461815</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>-2.949819494134909</v>
-      </c>
-      <c r="P13">
-        <v>0.6967363121191283</v>
-      </c>
-      <c r="Q13">
-        <v>2.833734372666652</v>
-      </c>
-      <c r="R13">
-        <v>2.521390070591267</v>
-      </c>
-      <c r="S13">
-        <v>1.99440460461342</v>
-      </c>
-      <c r="T13">
-        <v>2.508469427909898</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>2.513458516032818</v>
+        <v>3.313641510414356</v>
       </c>
       <c r="V13">
-        <v>2.513458516032818</v>
+        <v>2.556990714354845</v>
       </c>
       <c r="W13">
-        <v>2.513458516032818</v>
+        <v>-0.217407100248368</v>
       </c>
       <c r="X13">
-        <v>2.513458516032818</v>
+        <v>6.233648892986987</v>
       </c>
       <c r="Y13">
-        <v>2.513458516032818</v>
+        <v>1.091965090482994</v>
       </c>
       <c r="Z13">
-        <v>2.513458516032818</v>
+        <v>0.676128192849057</v>
       </c>
       <c r="AA13">
-        <v>2.513458516032818</v>
+        <v>1.37810805366898</v>
       </c>
       <c r="AB13">
-        <v>2.513458516032818</v>
+        <v>-0.9738659311994247</v>
       </c>
       <c r="AC13">
-        <v>2.513458516032818</v>
+        <v>3.031664248068799</v>
       </c>
       <c r="AD13">
-        <v>2.513458516032818</v>
+        <v>3.047037961814514</v>
       </c>
       <c r="AE13">
-        <v>2.513458516032818</v>
+        <v>3.053142148565624</v>
       </c>
       <c r="AF13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AG13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AH13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AI13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AJ13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AK13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AL13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AM13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AN13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AO13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AP13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AQ13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AR13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AS13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AT13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AU13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AV13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AW13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AX13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AY13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="AZ13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
       <c r="BA13">
-        <v>2.513458516032818</v>
+        <v>3.06399603345644</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>2.83373437266663</v>
-      </c>
-      <c r="R14">
-        <v>2.444382079779506</v>
-      </c>
-      <c r="S14">
-        <v>0.9898525518331924</v>
-      </c>
-      <c r="T14">
-        <v>2.540874511056623</v>
-      </c>
-      <c r="U14">
-        <v>2.613530175870626</v>
-      </c>
-      <c r="V14">
-        <v>3.523703831572056</v>
-      </c>
-      <c r="W14">
-        <v>3.529772839278755</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>3.529772839278755</v>
+        <v>6.233648892986987</v>
       </c>
       <c r="Y14">
-        <v>3.529772839278755</v>
+        <v>1.305581744336681</v>
       </c>
       <c r="Z14">
-        <v>3.529772839278755</v>
+        <v>0.8024032015999882</v>
       </c>
       <c r="AA14">
-        <v>3.529772839278755</v>
+        <v>1.937142119249913</v>
       </c>
       <c r="AB14">
-        <v>3.529772839278755</v>
+        <v>-4.327930935899992</v>
       </c>
       <c r="AC14">
-        <v>3.529772839278755</v>
+        <v>3.470008002361924</v>
       </c>
       <c r="AD14">
-        <v>3.529772839278755</v>
+        <v>3.638425237116749</v>
       </c>
       <c r="AE14">
-        <v>3.529772839278755</v>
+        <v>3.770384266127391</v>
       </c>
       <c r="AF14">
-        <v>3.529772839278755</v>
+        <v>1.725130460355073</v>
       </c>
       <c r="AG14">
-        <v>3.529772839278755</v>
+        <v>-0.5413737111579553</v>
       </c>
       <c r="AH14">
-        <v>3.529772839278755</v>
+        <v>-0.22288476972816</v>
       </c>
       <c r="AI14">
-        <v>3.529772839278755</v>
+        <v>-0.2164578521308358</v>
       </c>
       <c r="AJ14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AK14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AL14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AM14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AN14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AO14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AP14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AQ14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AR14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AS14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AT14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AU14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AV14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AW14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AX14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AY14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="AZ14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
       <c r="BA14">
-        <v>3.529772839278755</v>
+        <v>0.6221001279347327</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>0.9898525518331924</v>
-      </c>
-      <c r="T15">
-        <v>2.395655121238938</v>
-      </c>
-      <c r="U15">
-        <v>3.313641510414356</v>
-      </c>
-      <c r="V15">
-        <v>3.025650759929999</v>
-      </c>
-      <c r="W15">
-        <v>1.274170701304334</v>
-      </c>
-      <c r="X15">
-        <v>3.696331036365752</v>
-      </c>
-      <c r="Y15">
-        <v>1.207340632843712</v>
-      </c>
-      <c r="Z15">
-        <v>1.178605266817589</v>
-      </c>
-      <c r="AA15">
-        <v>1.17261862678224</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>1.178605266817589</v>
+        <v>-4.327930935900004</v>
       </c>
       <c r="AC15">
-        <v>2.406741336461837</v>
+        <v>3.857049367242271</v>
       </c>
       <c r="AD15">
-        <v>2.406741336461837</v>
+        <v>4.06728240412435</v>
       </c>
       <c r="AE15">
-        <v>2.406741336461837</v>
+        <v>4.270473305078393</v>
       </c>
       <c r="AF15">
-        <v>2.406741336461837</v>
+        <v>-1.194610791899997</v>
       </c>
       <c r="AG15">
-        <v>2.406741336461837</v>
+        <v>1.135957076337268</v>
       </c>
       <c r="AH15">
-        <v>2.406741336461837</v>
+        <v>5.441727066293178</v>
       </c>
       <c r="AI15">
-        <v>2.406741336461837</v>
+        <v>2.117990494347866</v>
       </c>
       <c r="AJ15">
-        <v>2.406741336461837</v>
+        <v>-2.221695202430862</v>
       </c>
       <c r="AK15">
-        <v>2.406741336461837</v>
+        <v>-0.8475469098342181</v>
       </c>
       <c r="AL15">
-        <v>2.406741336461837</v>
+        <v>-1.165854108406639</v>
       </c>
       <c r="AM15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AN15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AO15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AP15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AQ15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AR15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AS15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AT15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AU15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AV15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AW15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AX15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AY15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="AZ15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
       <c r="BA15">
-        <v>2.406741336461837</v>
+        <v>-1.005670135925762</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>3.313641510414356</v>
-      </c>
-      <c r="V16">
-        <v>2.556990714354845</v>
-      </c>
-      <c r="W16">
-        <v>-0.2174071002483902</v>
-      </c>
-      <c r="X16">
-        <v>6.233648892987009</v>
-      </c>
-      <c r="Y16">
-        <v>1.091965090482971</v>
-      </c>
-      <c r="Z16">
-        <v>0.6761281928490348</v>
-      </c>
-      <c r="AA16">
-        <v>1.37810805366898</v>
-      </c>
-      <c r="AB16">
-        <v>-0.973865931199458</v>
-      </c>
-      <c r="AC16">
-        <v>3.031664248068777</v>
-      </c>
-      <c r="AD16">
-        <v>3.047037961814492</v>
-      </c>
-      <c r="AE16">
-        <v>3.05314214856558</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>3.063996033456418</v>
+        <v>-1.194610791899997</v>
       </c>
       <c r="AG16">
-        <v>3.063996033456418</v>
+        <v>2.366036858041509</v>
       </c>
       <c r="AH16">
-        <v>3.063996033456418</v>
+        <v>7.730694266634308</v>
       </c>
       <c r="AI16">
-        <v>3.063996033456418</v>
+        <v>2.377383675146461</v>
       </c>
       <c r="AJ16">
-        <v>3.063996033456418</v>
+        <v>-6.324519326136457</v>
       </c>
       <c r="AK16">
-        <v>3.063996033456418</v>
+        <v>4.214126463489443</v>
       </c>
       <c r="AL16">
-        <v>3.063996033456418</v>
+        <v>2.8273245050219</v>
       </c>
       <c r="AM16">
-        <v>3.063996033456418</v>
+        <v>3.946810400327694</v>
       </c>
       <c r="AN16">
-        <v>3.063996033456418</v>
+        <v>-1.290816600413769</v>
       </c>
       <c r="AO16">
-        <v>3.063996033456418</v>
+        <v>2.440625733302504</v>
       </c>
       <c r="AP16">
-        <v>3.063996033456418</v>
+        <v>2.501311189006916</v>
       </c>
       <c r="AQ16">
-        <v>3.063996033456418</v>
+        <v>2.508255083117383</v>
       </c>
       <c r="AR16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AS16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AT16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AU16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AV16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AW16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AX16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AY16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="AZ16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
       <c r="BA16">
-        <v>3.063996033456418</v>
+        <v>2.512564721370358</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>6.233648892986965</v>
-      </c>
-      <c r="Y17">
-        <v>1.305581744336681</v>
-      </c>
-      <c r="Z17">
-        <v>0.8024032016000104</v>
-      </c>
-      <c r="AA17">
-        <v>1.937142119249913</v>
-      </c>
-      <c r="AB17">
-        <v>-4.327930935899992</v>
-      </c>
-      <c r="AC17">
-        <v>3.470008002361924</v>
-      </c>
-      <c r="AD17">
-        <v>3.638425237116749</v>
-      </c>
-      <c r="AE17">
-        <v>3.770384266127369</v>
-      </c>
-      <c r="AF17">
-        <v>1.725130460355095</v>
-      </c>
-      <c r="AG17">
-        <v>-0.5413737111579442</v>
-      </c>
-      <c r="AH17">
-        <v>-0.2228847697281378</v>
-      </c>
-      <c r="AI17">
-        <v>-0.2164578521308247</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>0.6221001279347549</v>
+        <v>-6.324519326136446</v>
       </c>
       <c r="AK17">
-        <v>0.6221001279347549</v>
+        <v>5.242891668610383</v>
       </c>
       <c r="AL17">
-        <v>0.6221001279347549</v>
+        <v>3.755917372390782</v>
       </c>
       <c r="AM17">
-        <v>0.6221001279347549</v>
+        <v>5.401597835967098</v>
       </c>
       <c r="AN17">
-        <v>0.6221001279347549</v>
+        <v>-8.277043919141525</v>
       </c>
       <c r="AO17">
-        <v>0.6221001279347549</v>
+        <v>2.97728454211843</v>
       </c>
       <c r="AP17">
-        <v>0.6221001279347549</v>
+        <v>3.766995476534918</v>
       </c>
       <c r="AQ17">
-        <v>0.6221001279347549</v>
+        <v>2.93728531054509</v>
       </c>
       <c r="AR17">
-        <v>0.6221001279347549</v>
+        <v>2.066568225344989</v>
       </c>
       <c r="AS17">
-        <v>0.6221001279347549</v>
+        <v>0.9420042531300243</v>
       </c>
       <c r="AT17">
-        <v>0.6221001279347549</v>
+        <v>0.6753076481029074</v>
       </c>
       <c r="AU17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AV17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AW17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AX17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AY17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="AZ17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
       <c r="BA17">
-        <v>0.6221001279347549</v>
+        <v>0.6556783400334387</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>-4.327930935899992</v>
-      </c>
-      <c r="AC18">
-        <v>3.857049367242293</v>
-      </c>
-      <c r="AD18">
-        <v>4.06728240412435</v>
-      </c>
-      <c r="AE18">
-        <v>4.270473305078393</v>
-      </c>
-      <c r="AF18">
-        <v>-1.194610791900008</v>
-      </c>
-      <c r="AG18">
-        <v>1.135957076337268</v>
-      </c>
-      <c r="AH18">
-        <v>5.441727066293178</v>
-      </c>
-      <c r="AI18">
-        <v>2.117990494347866</v>
-      </c>
-      <c r="AJ18">
-        <v>-2.22169520243084</v>
-      </c>
-      <c r="AK18">
-        <v>-0.847546909834207</v>
-      </c>
-      <c r="AL18">
-        <v>-1.165854108406617</v>
-      </c>
-      <c r="AM18">
-        <v>-1.00567013592574</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>-1.00567013592574</v>
+        <v>-8.277043919141525</v>
       </c>
       <c r="AO18">
-        <v>-1.00567013592574</v>
+        <v>3.211590201182246</v>
       </c>
       <c r="AP18">
-        <v>-1.00567013592574</v>
+        <v>4.183991082435101</v>
       </c>
       <c r="AQ18">
-        <v>-1.00567013592574</v>
+        <v>2.847433398110755</v>
       </c>
       <c r="AR18">
-        <v>-1.00567013592574</v>
+        <v>0.5638104621660478</v>
       </c>
       <c r="AS18">
-        <v>-1.00567013592574</v>
+        <v>1.197522477793744</v>
       </c>
       <c r="AT18">
-        <v>-1.00567013592574</v>
+        <v>0.5616045648562995</v>
       </c>
       <c r="AU18">
-        <v>-1.00567013592574</v>
+        <v>1.648295078144368</v>
       </c>
       <c r="AV18">
-        <v>-1.00567013592574</v>
+        <v>-1.187784794999081</v>
       </c>
       <c r="AW18">
-        <v>-1.00567013592574</v>
+        <v>2.025083876303713</v>
       </c>
       <c r="AX18">
-        <v>-1.00567013592574</v>
+        <v>2.039329803030099</v>
       </c>
       <c r="AY18">
-        <v>-1.00567013592574</v>
+        <v>2.00811397206242</v>
       </c>
       <c r="AZ18">
-        <v>-1.00567013592574</v>
+        <v>1.751198481007687</v>
       </c>
       <c r="BA18">
-        <v>-1.00567013592574</v>
+        <v>1.751198481007687</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-1.194610791899997</v>
-      </c>
-      <c r="AG19">
-        <v>2.366036858041531</v>
-      </c>
-      <c r="AH19">
-        <v>7.730694266634286</v>
-      </c>
-      <c r="AI19">
-        <v>2.377383675146461</v>
-      </c>
-      <c r="AJ19">
-        <v>-6.324519326136446</v>
-      </c>
-      <c r="AK19">
-        <v>4.214126463489443</v>
-      </c>
-      <c r="AL19">
-        <v>2.8273245050219</v>
-      </c>
-      <c r="AM19">
-        <v>3.946810400327672</v>
-      </c>
-      <c r="AN19">
-        <v>-1.290816600413758</v>
-      </c>
-      <c r="AO19">
-        <v>2.440625733302504</v>
-      </c>
-      <c r="AP19">
-        <v>2.501311189006916</v>
-      </c>
-      <c r="AQ19">
-        <v>2.508255083117383</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>2.512564721370381</v>
+        <v>0.56381046216607</v>
       </c>
       <c r="AS19">
-        <v>2.512564721370381</v>
+        <v>1.71820588950411</v>
       </c>
       <c r="AT19">
-        <v>2.512564721370381</v>
+        <v>1.225454022269989</v>
       </c>
       <c r="AU19">
-        <v>2.512564721370381</v>
+        <v>2.98747790223699</v>
       </c>
       <c r="AV19">
-        <v>2.512564721370381</v>
+        <v>-4.510558235413276</v>
       </c>
       <c r="AW19">
-        <v>2.512564721370381</v>
+        <v>2.460035583527898</v>
       </c>
       <c r="AX19">
-        <v>2.512564721370381</v>
+        <v>2.644471404309057</v>
       </c>
       <c r="AY19">
-        <v>2.512564721370381</v>
+        <v>0.6315208369373382</v>
       </c>
       <c r="AZ19">
-        <v>2.512564721370381</v>
+        <v>4.306165070258094</v>
       </c>
       <c r="BA19">
-        <v>2.512564721370381</v>
+        <v>2.541620503438358</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>-6.324519326136457</v>
-      </c>
-      <c r="AK20">
-        <v>5.242891668610383</v>
-      </c>
-      <c r="AL20">
-        <v>3.755917372390805</v>
-      </c>
-      <c r="AM20">
-        <v>5.401597835967076</v>
-      </c>
-      <c r="AN20">
-        <v>-8.277043919141548</v>
-      </c>
-      <c r="AO20">
-        <v>2.977284542118408</v>
-      </c>
-      <c r="AP20">
-        <v>3.766995476534918</v>
-      </c>
-      <c r="AQ20">
-        <v>2.937285310545068</v>
-      </c>
-      <c r="AR20">
-        <v>2.066568225344967</v>
-      </c>
-      <c r="AS20">
-        <v>0.9420042531300021</v>
-      </c>
-      <c r="AT20">
-        <v>0.6753076481029074</v>
-      </c>
-      <c r="AU20">
-        <v>0.6556783400334387</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>0.6556783400334387</v>
+        <v>-4.510558235413265</v>
       </c>
       <c r="AW20">
-        <v>0.6556783400334387</v>
+        <v>2.243950929018612</v>
       </c>
       <c r="AX20">
-        <v>0.6556783400334387</v>
+        <v>2.470195819367027</v>
       </c>
       <c r="AY20">
-        <v>0.6556783400334387</v>
+        <v>-0.6983252104541204</v>
       </c>
       <c r="AZ20">
-        <v>0.6556783400334387</v>
+        <v>8.305446157974018</v>
       </c>
       <c r="BA20">
-        <v>0.6556783400334387</v>
+        <v>4.63560702493917</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>-8.277043919141514</v>
-      </c>
-      <c r="AO21">
-        <v>3.211590201182224</v>
-      </c>
-      <c r="AP21">
-        <v>4.183991082435123</v>
-      </c>
-      <c r="AQ21">
-        <v>2.847433398110777</v>
-      </c>
-      <c r="AR21">
-        <v>0.5638104621660478</v>
-      </c>
-      <c r="AS21">
-        <v>1.197522477793767</v>
-      </c>
-      <c r="AT21">
-        <v>0.5616045648562995</v>
-      </c>
-      <c r="AU21">
-        <v>1.648295078144391</v>
-      </c>
-      <c r="AV21">
-        <v>-1.187784794999047</v>
-      </c>
-      <c r="AW21">
-        <v>2.025083876303735</v>
-      </c>
-      <c r="AX21">
-        <v>2.039329803030121</v>
-      </c>
-      <c r="AY21">
-        <v>2.008113972062442</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>1.751198481007687</v>
+        <v>8.305446157974018</v>
       </c>
       <c r="BA21">
-        <v>1.751198481007687</v>
+        <v>4.790390165141845</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>0.5638104621660478</v>
-      </c>
-      <c r="AS22">
-        <v>1.718205889504132</v>
-      </c>
-      <c r="AT22">
-        <v>1.225454022269989</v>
-      </c>
-      <c r="AU22">
-        <v>2.987477902237012</v>
-      </c>
-      <c r="AV22">
-        <v>-4.510558235413276</v>
-      </c>
-      <c r="AW22">
-        <v>2.460035583527875</v>
-      </c>
-      <c r="AX22">
-        <v>2.644471404309057</v>
-      </c>
-      <c r="AY22">
-        <v>0.631520836937316</v>
-      </c>
-      <c r="AZ22">
-        <v>4.306165070258094</v>
-      </c>
-      <c r="BA22">
-        <v>2.54162050343838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>-4.510558235413265</v>
-      </c>
-      <c r="AW23">
-        <v>2.243950929018612</v>
-      </c>
-      <c r="AX23">
-        <v>2.470195819367027</v>
-      </c>
-      <c r="AY23">
-        <v>-0.6983252104540982</v>
-      </c>
-      <c r="AZ23">
-        <v>8.305446157974039</v>
-      </c>
-      <c r="BA23">
-        <v>4.635607024939148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>8.305446157974018</v>
-      </c>
-      <c r="BA24">
-        <v>4.790390165141822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_OPA_AVERAGE_1_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>1.457481710491582</v>
       </c>
+      <c r="BB3">
+        <v>1.457481710491582</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>1.816525349942233</v>
       </c>
+      <c r="BB4">
+        <v>1.816525349942233</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>5.154576318286241</v>
       </c>
+      <c r="BB5">
+        <v>5.154576318286241</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>3.237295655668815</v>
       </c>
+      <c r="BB6">
+        <v>3.237295655668815</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>0.9877679306576237</v>
       </c>
+      <c r="BB7">
+        <v>0.9877679306576237</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>2.422799116969476</v>
       </c>
+      <c r="BB8">
+        <v>2.422799116969476</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>2.851134222122798</v>
       </c>
+      <c r="BB9">
+        <v>2.851134222122798</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>2.51345851603284</v>
       </c>
+      <c r="BB10">
+        <v>2.51345851603284</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>3.529772839278777</v>
       </c>
+      <c r="BB11">
+        <v>3.529772839278777</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>2.406741336461815</v>
       </c>
+      <c r="BB12">
+        <v>2.406741336461815</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>3.06399603345644</v>
       </c>
+      <c r="BB13">
+        <v>3.06399603345644</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>0.6221001279347327</v>
       </c>
+      <c r="BB14">
+        <v>0.6221001279347327</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>-1.005670135925762</v>
       </c>
+      <c r="BB15">
+        <v>-1.005670135925762</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>2.512564721370358</v>
       </c>
+      <c r="BB16">
+        <v>2.512564721370358</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>0.6556783400334387</v>
       </c>
+      <c r="BB17">
+        <v>0.6556783400334387</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>1.751198481007687</v>
       </c>
+      <c r="BB18">
+        <v>1.751198481007687</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>2.541620503438358</v>
       </c>
+      <c r="BB19">
+        <v>2.46481303148316</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>4.63560702493917</v>
       </c>
+      <c r="BB20">
+        <v>3.633434696013671</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>4.790390165141845</v>
       </c>
+      <c r="BB21">
+        <v>3.559889218615653</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
